--- a/owlcms/src/main/resources/templates/introduction/Introduction.xlsx
+++ b/owlcms/src/main/resources/templates/introduction/Introduction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/usaw-owlcms/local/templates/emptyProtocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EABAFF-E755-6641-B1F9-A9BA9C604878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB5C14-3C3D-4940-9152-DE0A778E5317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="39500" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -191,10 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Start</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -223,15 +218,6 @@
     <t>${session.competitionTime}</t>
   </si>
   <si>
-    <t>Weight Category</t>
-  </si>
-  <si>
-    <t>${groups.item.BWCategory}</t>
-  </si>
-  <si>
-    <t>${groups.item.ageGroup.displayName} Age Group</t>
-  </si>
-  <si>
     <t>Session ${session.name} - ${session.ageGroupInfo.0.formattedRange}</t>
   </si>
   <si>
@@ -257,6 +243,12 @@
   </si>
   <si>
     <t>${athlete.fullName}</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>${groups.item.category}</t>
   </si>
 </sst>
 </file>
@@ -376,21 +368,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,37 +724,37 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -774,25 +766,25 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -804,65 +796,61 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -874,19 +862,19 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
